--- a/excel_test_01.xlsx
+++ b/excel_test_01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\test01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7623554-C9D5-4D1B-A1AF-43A7F0C54F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D1EAFD-7DA5-462D-9FFE-B2C7E65E261A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{DEEB79B4-561E-4D65-BE61-B30A7CBB600D}"/>
   </bookViews>
@@ -33,9 +33,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>テスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>add</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -400,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A15B4067-9DC6-45B3-A751-9550A436CB19}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -413,6 +417,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
